--- a/data/trans_camb/P12B1_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12B1_1_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -606,27 +637,42 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,17</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>-1,5</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
         </is>
       </c>
     </row>
@@ -644,27 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-23,87; 0,0</t>
+          <t>-7,7; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,07; 0,0</t>
+          <t>-7,7; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 14,15</t>
+          <t>-6,63; 0,0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-5,08; 0,0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-5,08; 0,0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-4,72; 0,0</t>
         </is>
       </c>
     </row>
@@ -682,27 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>41,44%</t>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -743,6 +819,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,16</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>6,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,79</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,9</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1,98</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,53</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3,19</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-43,37; 56,38</t>
+          <t>-1,33; 19,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-46,68; 62,56</t>
+          <t>-2,78; 2,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 22,64</t>
+          <t>-0,36; 24,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,82; 6,42</t>
+          <t>-2,33; 1,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,55; 46,47</t>
+          <t>-3,36; 0,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,85; 38,29</t>
+          <t>-2,76; 1,37</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 10,0</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 0,94</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-0,54; 14,1</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>34,94%</t>
+          <t>244,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>-29,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,31%</t>
+          <t>383,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-59,83%</t>
+          <t>-5,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>62,56%</t>
+          <t>-56,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>-16,07%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>145,73%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-39,12%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>234,1%</t>
         </is>
       </c>
     </row>
@@ -871,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-93,04; 562,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 669,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,92; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -891,12 +1027,27 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-82,35; 466,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-93,85; 493,05</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-65,37; 2164,07</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 349,94</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-54,22; 2014,2</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,56</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,19</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,36; 39,78</t>
+          <t>-1,9; 3,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-33,6; 15,94</t>
+          <t>-2,9; 1,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-32,6; 26,99</t>
+          <t>-1,89; 4,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-32,52; 21,54</t>
+          <t>-2,23; 2,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,97; 21,93</t>
+          <t>-2,26; 1,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,68; 15,62</t>
+          <t>-1,26; 4,14</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-1,6; 1,9</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 1,56</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-0,58; 3,53</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>26,0%</t>
+          <t>10,86%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-26,71%</t>
+          <t>-1,46%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-17,33%</t>
+          <t>154,05%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-15,52%</t>
+          <t>-18,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,58%</t>
+          <t>-1,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-20,15%</t>
+          <t>90,21%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-6,89%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-2,04%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>115,83%</t>
         </is>
       </c>
     </row>
@@ -1042,24 +1238,39 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 424,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-84,17; 349,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-53,37; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,78</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,12</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-26,89; 41,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-28,22; 40,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,49; 10,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 6,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,26; 25,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 23,42</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>48,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-12,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-40,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>38,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-92,83; 537,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-94,21; 473,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-84,25; 234,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-88,43; 179,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-68,5; 288,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-76,02; 278,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3,53</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,51</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 10,15</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 1,24</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 14,0</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,78; 1,09</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-1,96; 0,58</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 1,38</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,65; 5,19</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,31; 0,72</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,01; 7,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>179,46%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-20,54%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>310,7%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-27,64%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-43,84%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1,41%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>69,87%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-32,6%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>151,34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-37,13; —</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 269,64</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 180,48</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-71,89; 333,51</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-51,08; 725,01</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-82,04; 146,01</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-11,1; 975,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
